--- a/Carpeta de Estudio/E24/Repo1/Patrones de diseño-E24.xlsx
+++ b/Carpeta de Estudio/E24/Repo1/Patrones de diseño-E24.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariel\OneDrive\Documentos\Repositorios\E24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Documentos\GitHub\MIC-Evolucion_patrones_de_diseno\Carpeta de Estudio\E24\Repo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BDB4A4-ED64-41B2-83BF-76B1E8055F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Patrones utilizados</t>
   </si>
@@ -54,9 +55,6 @@
   </si>
   <si>
     <t>Decorator</t>
-  </si>
-  <si>
-    <t>Command</t>
   </si>
   <si>
     <t>Factory Method</t>
@@ -80,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -497,21 +495,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,9 +528,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -546,10 +544,10 @@
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -565,10 +563,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -578,16 +576,16 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -603,16 +601,12 @@
         <v>3</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
